--- a/corner5.xlsx
+++ b/corner5.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.5614496303533656</v>
+        <v>10.322972113565896</v>
       </c>
       <c r="B1">
-        <v>209.54335172112852</v>
+        <v>210.84315319112252</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>779.03542895347391</v>
+        <v>772.94396588382165</v>
       </c>
       <c r="B2">
-        <v>286.30348658035064</v>
+        <v>244.21918934533068</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>710.60389141919859</v>
+        <v>709.45749407845813</v>
       </c>
       <c r="B3">
-        <v>11.070508760854636</v>
+        <v>9.2289568381134472</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10.295204518699876</v>
+        <v>9.992836399670864</v>
       </c>
       <c r="B4">
-        <v>10.004807371583809</v>
+        <v>10.095291967272942</v>
       </c>
     </row>
   </sheetData>

--- a/corner5.xlsx
+++ b/corner5.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>10.322972113565896</v>
+        <v>9.6810661785380034</v>
       </c>
       <c r="B1">
-        <v>210.84315319112252</v>
+        <v>209.88100694803904</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>772.94396588382165</v>
+        <v>773.48565334753459</v>
       </c>
       <c r="B2">
-        <v>244.21918934533068</v>
+        <v>237.10345205662188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>709.45749407845813</v>
+        <v>710.61085100445644</v>
       </c>
       <c r="B3">
-        <v>9.2289568381134472</v>
+        <v>9.7399089804500534</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9.992836399670864</v>
+        <v>10.057742216516715</v>
       </c>
       <c r="B4">
-        <v>10.095291967272942</v>
+        <v>10.474714746586045</v>
       </c>
     </row>
   </sheetData>

--- a/corner5.xlsx
+++ b/corner5.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.6810661785380034</v>
+        <v>10.513792948306914</v>
       </c>
       <c r="B1">
-        <v>209.88100694803904</v>
+        <v>210.32539568569831</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>773.48565334753459</v>
+        <v>763.09623048648723</v>
       </c>
       <c r="B2">
-        <v>237.10345205662188</v>
+        <v>182.5651853466012</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>710.61085100445644</v>
+        <v>709.27307558975633</v>
       </c>
       <c r="B3">
-        <v>9.7399089804500534</v>
+        <v>9.823151335440798</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10.057742216516715</v>
+        <v>9.105916218637077</v>
       </c>
       <c r="B4">
-        <v>10.474714746586045</v>
+        <v>9.5760621529477703</v>
       </c>
     </row>
   </sheetData>

--- a/corner5.xlsx
+++ b/corner5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>10.513792948306914</v>
+        <v>10.241102301826842</v>
       </c>
       <c r="B1">
-        <v>210.32539568569831</v>
+        <v>210.01962724595373</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>763.09623048648723</v>
+        <v>710.32417019044544</v>
       </c>
       <c r="B2">
-        <v>182.5651853466012</v>
+        <v>210.19963006642331</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>709.27307558975633</v>
+        <v>710.10275178946745</v>
       </c>
       <c r="B3">
-        <v>9.823151335440798</v>
+        <v>9.5522313534168291</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9.105916218637077</v>
+        <v>10.01968390084896</v>
       </c>
       <c r="B4">
-        <v>9.5760621529477703</v>
+        <v>9.3722285329472754</v>
       </c>
     </row>
   </sheetData>
